--- a/NiTiErp/wwwroot/templates/SucKhoeTK.xlsx
+++ b/NiTiErp/wwwroot/templates/SucKhoeTK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Tổng:</t>
+  </si>
+  <si>
+    <t>Xí nghiệp</t>
   </si>
 </sst>
 </file>
@@ -479,14 +482,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -769,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W12"/>
+  <dimension ref="A3:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -780,64 +783,67 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="26.85546875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="26.85546875" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
     </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+    <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
-    <row r="5" spans="1:23" s="2" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="2" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="5" t="s">
         <v>0</v>
@@ -845,72 +851,75 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="V5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="W5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="X5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="17"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
@@ -928,13 +937,14 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
-      <c r="W6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="12"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -952,30 +962,28 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
-      <c r="W7" s="14"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="33" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="31" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="30">
-        <f>SUM(G6:G7)</f>
-        <v>0</v>
       </c>
       <c r="H8" s="30">
         <f>SUM(H6:H7)</f>
         <v>0</v>
       </c>
       <c r="I8" s="30">
-        <f t="shared" ref="I8:T8" si="0">SUM(I6:I7)</f>
+        <f>SUM(I6:I7)</f>
         <v>0</v>
       </c>
       <c r="J8" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J8:V8" si="0">SUM(J6:J7)</f>
         <v>0</v>
       </c>
       <c r="K8" s="30">
@@ -1018,17 +1026,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="29"/>
+      <c r="U8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="27"/>
+      <c r="X8" s="29"/>
     </row>
-    <row r="9" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -1042,30 +1057,31 @@
       <c r="R9" s="25"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
-      <c r="U9" s="15"/>
+      <c r="U9" s="25"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="16"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="U11" s="32" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="U12" s="31" t="s">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B3:X3"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="V12:X12"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
